--- a/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P1.xlsx
+++ b/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\10月Parabens文献调研\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python learning\GirKarken\ReadPaper in Excel\多介质模型文献阅读\Excel文献拆解\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="博士论文阅读" sheetId="3" r:id="rId1"/>
@@ -5190,8 +5190,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6312,7 +6312,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>

--- a/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P1.xlsx
+++ b/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,36 +12,145 @@
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="博士论文阅读" sheetId="3" r:id="rId1"/>
-    <sheet name="英文综述阅读" sheetId="12" r:id="rId2"/>
-    <sheet name="中文综述阅读" sheetId="13" r:id="rId3"/>
-    <sheet name="英文期刊阅读" sheetId="4" r:id="rId4"/>
-    <sheet name="速读十问" sheetId="11" r:id="rId5"/>
-    <sheet name="物化性质文献 " sheetId="7" r:id="rId6"/>
-    <sheet name="Mackay" sheetId="9" r:id="rId7"/>
-    <sheet name="Film" sheetId="5" r:id="rId8"/>
-    <sheet name="Dust" sheetId="8" r:id="rId9"/>
-    <sheet name="基金" sheetId="10" r:id="rId10"/>
-    <sheet name="搜索技巧" sheetId="6" r:id="rId11"/>
+    <sheet name="组内论文" sheetId="14" r:id="rId1"/>
+    <sheet name="博士论文阅读" sheetId="3" r:id="rId2"/>
+    <sheet name="英文综述阅读" sheetId="12" r:id="rId3"/>
+    <sheet name="赵雪博士论文拆解1" sheetId="15" r:id="rId4"/>
+    <sheet name="中文综述阅读" sheetId="13" r:id="rId5"/>
+    <sheet name="英文期刊阅读" sheetId="4" r:id="rId6"/>
+    <sheet name="速读十问" sheetId="11" r:id="rId7"/>
+    <sheet name="物化性质文献 " sheetId="7" r:id="rId8"/>
+    <sheet name="Mackay" sheetId="9" r:id="rId9"/>
+    <sheet name="Film" sheetId="5" r:id="rId10"/>
+    <sheet name="Dust" sheetId="8" r:id="rId11"/>
+    <sheet name="基金" sheetId="10" r:id="rId12"/>
+    <sheet name="搜索技巧" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="O2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+本文档将“研究对象”视为污染物，
+而“数据收集对象”视为利用科学手段所认识的对象，即环境介质、人体生物样品、产品等。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+数据收集工具即认识对象的工具，即我们定量表征事物属性的工具或者方法</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+利用数据收集工具对数据收集对象进行的一系列的操作，从而得到数据区的数据内容。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对表格的数据进行处理的方法和步骤</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
@@ -77,7 +186,72 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+城市污水是parabens及其代谢物在城市河流中的重要污染点源。
+城市污水→城市排水系统（排水管道和污水处理厂）→受纳水体</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+城市地表径流是大气颗粒物、地面积尘、土壤和垃圾渗滤液等环境介质中的污染物进入城市水环境的重要途径，是重要的面源污染。
+地面积尘、土壤→地表径流→受纳水体
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>User</author>
@@ -443,7 +617,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>User</author>
@@ -559,7 +733,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="341">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4002,6 +4176,679 @@
   </si>
   <si>
     <t>科学通报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZXSJ01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving urban drainage systems to mitigate 
+PPCPs in surface water: a watershed perspective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZXSJ02</t>
+  </si>
+  <si>
+    <t>ZXSJ03</t>
+  </si>
+  <si>
+    <t>ZXSJ04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Road runoff as a significant nonpoint source of 
+parabens and their metabolites in urban rivers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecotoxicology and 
+Environmental Safety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of Hazardous 
+Materials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结论</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Xue Zhao
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵雪</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wenhui Qiu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">裘文慧
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Yi Zheng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑一</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Occurrence, distribution, bioaccumulation, and ecological risk of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bisphenol analogues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, parabens and their metabolites in the Pearl River Estuary</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yi Zheng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑一</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国环境科学</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雄安新区水环境中对羟基苯甲酸酯含量及风险</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.Abstract: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">This study analyzed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">eight bisphenol analogues, six parabens, and five paraben metabolites </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>in seawater (including aqueous and suspended particle matter (SPM)), as well as organism samples from the Pearl River Estuary, in order to determine their occurrence, distribution, bioaccumulation, and ecological and human health risk in South China's marine environment.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pearl River Estuary </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Seawater sample (aqueous samples + SPM), S1-S25, 2017-12
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Samples of marine organisms (shellfish species11, fish species10), 2017-12</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测方法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Wanli Ma, 2018, Concentrations and fate of parabens and their metabolites in two typical wastewater treatment plants in northeastern China
+SPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和对象二检测方法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xue, X., Kannan, K., 2017, Trophic magnification of parabens and their metabolites in a Subtropical marine food web</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨工业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境科学与工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市化流域水环境中对羟基苯甲酸酯的源汇过程研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parabens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市茅洲河流域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河水111、河流表层沉积物65、污水处理厂进水20、
+污水处理厂出水29、地面积尘21、土壤12、路面地表径流37、雨水管径流3、海水样品37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景
+研究空白
+研究主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>城市化河流中对轻基苯甲酸酯及其代谢物的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>污染特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及其</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受城市建设和管理措施影响的机制</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要研究内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要研究内容1的主要结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在不同环境介质中的浓度水平结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…平均浓度…对比发现…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>河水中目标污染物的来源
+主要结论/发现：排水体制改造前，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合流制溢流排水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是导致茅洲河河水中对羟基苯甲酸酯及其代谢物异常增高的主要原因。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过分流制排水体制改造，目标污染物进入河段的总量可减少80%以上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要研究内容2的主要结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要研究内容3的主要结果</t>
+  </si>
+  <si>
+    <t>段七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩PPT的第9页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂的城市排水系统如何影响城市水环境中Parabens及其代谢物的污染？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩PPT的第10页</t>
+  </si>
+  <si>
+    <t>在降雨径流的驱动下，
+面源污染过程如何影响城市水环境中Parabens及其代谢物的污染？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过固相萃取和液液萃取结合
+液相色谱质谱联用仪分析测定了不同介质中对羟基苯甲酸酯及其代谢物的浓度水平。
+1.分析了典型城市雨源型河流中对轻基苯甲酸酯及其代谢物的污染特征及来源构成；
+（解析城市化流域水环境中parabens及其代谢物污染的时空特征及其影响因素）
+2.研究了城市河流中目标污染物的点源污染过程及其影响机制；
+（揭示城市复杂排水系统对雨源型河流中parabens及其代谢物</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点源污染过程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的影响机制）
+3.量化了城市</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面源污染过程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对城市河流中目标污染物的贡献
+（阐明城市路面地表径流对于城市水环境中parabens及其代谢物污染的贡献）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章：城市雨源型河流的污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章：城市化流域的点源污染过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章：城市化流域的面源污
+染过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初期冲刷效应、
+面源污染影响的定量分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Occurrence, distribution, bioaccumulation, and ecological risk of bisphenol analogues, parabens and their metabolites in the Pearl River Estuary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4009,7 +4856,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4145,6 +4992,28 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="11">
@@ -4295,7 +5164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4423,6 +5292,45 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4468,16 +5376,305 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 17" descr="https://pubs.acs.org/cms/10.1021/es2003233/asset/images/large/es-2011-003233_0005.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2334169F-9FD6-4EE8-BEEE-F273036F1D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8282940" y="9715500"/>
+          <a:ext cx="304800" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>197226</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>233084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3720354</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1664355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE7F118-C7A7-53C1-2EA4-8211812F2DBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9646026" y="842684"/>
+          <a:ext cx="3523128" cy="1431271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111474</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>232303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3837957</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1730189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC062C6-F1E8-346E-75D0-BEA6BB08D48F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9560274" y="2751385"/>
+          <a:ext cx="3726483" cy="1497886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>94770</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3810594</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2166258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E504BDA8-E44D-AADD-57CC-F7A80622164E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9521799" y="6423852"/>
+          <a:ext cx="3715824" cy="2067006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>866776</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3038476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1895780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11630026" y="2257425"/>
+          <a:ext cx="2171700" cy="1886255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>305</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3751336</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2505075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="4219575"/>
+          <a:ext cx="3541786" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>771525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3287949</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3200400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4494,8 +5691,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11458576" y="2266950"/>
-          <a:ext cx="2171700" cy="1886255"/>
+          <a:off x="6267450" y="2105025"/>
+          <a:ext cx="3249849" cy="2428875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4507,7 +5704,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4524,7 +5721,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="https://d3i71xaburhd42.cloudfront.net/74bbf259c13521e68161501e0de5668e36354a71/4-Figure1-1.png"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="https://d3i71xaburhd42.cloudfront.net/74bbf259c13521e68161501e0de5668e36354a71/4-Figure1-1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4573,13 +5776,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>2914650</xdr:colOff>
+      <xdr:colOff>2815590</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1861134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4617,7 +5826,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4649,13 +5864,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>4476750</xdr:colOff>
+      <xdr:colOff>4210050</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>2485876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4693,7 +5914,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2065" name="AutoShape 17" descr="https://pubs.acs.org/cms/10.1021/es2003233/asset/images/large/es-2011-003233_0005.jpeg"/>
+        <xdr:cNvPr id="2065" name="AutoShape 17" descr="https://pubs.acs.org/cms/10.1021/es2003233/asset/images/large/es-2011-003233_0005.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4735,7 +5962,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4779,7 +6012,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4805,7 +6044,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4822,7 +6061,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4860,7 +6105,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4898,7 +6149,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5187,341 +6444,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1"/>
-    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1"/>
-    <col min="7" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="46.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="46.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="64.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="63.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57" style="1" customWidth="1"/>
+    <col min="9" max="9" width="90.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="45.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="38.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="40.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="49.625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="46.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="61.375" style="1" customWidth="1"/>
     <col min="20" max="20" width="76.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41.125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="S2" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="16">
         <v>2019</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="81" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="D3" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+    </row>
+    <row r="4" spans="1:23" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="2">
-        <v>2016</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="C4" s="16">
+        <v>2021</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+    </row>
+    <row r="5" spans="1:23" s="46" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2021</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" ht="179.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="16">
         <v>2022</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+    </row>
+    <row r="7" spans="1:23" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="24"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -5540,10 +6743,11 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -5562,52 +6766,32 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:R1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5617,6 +6801,320 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="100.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="146.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1998</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="61.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2001</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="100.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="146.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
@@ -5886,7 +7384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E6"/>
@@ -5963,6 +7461,457 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:T10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1"/>
+    <col min="7" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="46.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="46.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="64.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="47.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="63.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="76.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="81" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -5970,7 +7919,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="32"/>
     <col min="2" max="2" width="9.5" style="32" bestFit="1" customWidth="1"/>
@@ -6127,7 +8076,232 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="5" width="27.375" style="49" customWidth="1"/>
+    <col min="6" max="6" width="43.5" style="49" customWidth="1"/>
+    <col min="7" max="7" width="31.375" style="49" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.625" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" s="56"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="297" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -6135,7 +8309,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
@@ -6307,13 +8481,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6358,28 +8532,28 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="45" t="s">
+      <c r="J1" s="61"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="44" t="s">
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
       <c r="AB1" s="16"/>
       <c r="AC1" s="16"/>
     </row>
@@ -6992,7 +9166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -7000,7 +9174,7 @@
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
     <col min="8" max="9" width="26.125" style="1" bestFit="1" customWidth="1"/>
@@ -7016,27 +9190,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
@@ -7101,7 +9275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -7240,7 +9414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
@@ -7288,27 +9462,27 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="45" t="s">
+      <c r="J1" s="61"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="44" t="s">
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
       <c r="AA1" s="16"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -7631,318 +9805,4 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="100.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="146.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="16">
-        <v>1998</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="16">
-        <v>2000</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="16">
-        <v>2001</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="100.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="146.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P1.xlsx
+++ b/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P1.xlsx
@@ -9,22 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="组内论文" sheetId="14" r:id="rId1"/>
-    <sheet name="博士论文阅读" sheetId="3" r:id="rId2"/>
-    <sheet name="英文综述阅读" sheetId="12" r:id="rId3"/>
-    <sheet name="赵雪博士论文拆解1" sheetId="15" r:id="rId4"/>
-    <sheet name="中文综述阅读" sheetId="13" r:id="rId5"/>
-    <sheet name="英文期刊阅读" sheetId="4" r:id="rId6"/>
-    <sheet name="速读十问" sheetId="11" r:id="rId7"/>
-    <sheet name="物化性质文献 " sheetId="7" r:id="rId8"/>
-    <sheet name="Mackay" sheetId="9" r:id="rId9"/>
-    <sheet name="Film" sheetId="5" r:id="rId10"/>
-    <sheet name="Dust" sheetId="8" r:id="rId11"/>
-    <sheet name="基金" sheetId="10" r:id="rId12"/>
-    <sheet name="搜索技巧" sheetId="6" r:id="rId13"/>
+    <sheet name="博士论文阅读" sheetId="3" r:id="rId1"/>
+    <sheet name="英文综述阅读" sheetId="12" r:id="rId2"/>
+    <sheet name="中文综述阅读" sheetId="13" r:id="rId3"/>
+    <sheet name="组内论文" sheetId="14" r:id="rId4"/>
+    <sheet name="英文期刊阅读" sheetId="4" r:id="rId5"/>
+    <sheet name="物化性质文献 " sheetId="7" r:id="rId6"/>
+    <sheet name="Mackay" sheetId="9" r:id="rId7"/>
+    <sheet name="Film" sheetId="5" r:id="rId8"/>
+    <sheet name="基金" sheetId="10" r:id="rId9"/>
+    <sheet name="速读十问" sheetId="11" r:id="rId10"/>
+    <sheet name="搜索技巧" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,6 +34,78 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="T4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对应的Mackay里的书p.158写了，“background hypothene concentration”和p.159写了，“near-steady-state concentrations in three compartments”</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ER：English Review</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>User</author>
@@ -143,107 +213,6 @@
           </rPr>
           <t xml:space="preserve">
 对表格的数据进行处理的方法和步骤</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="T4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-对应的Mackay里的书p.158写了，“background hypothene concentration”和p.159写了，“near-steady-state concentrations in three compartments”</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>User</author>
-  </authors>
-  <commentList>
-    <comment ref="I4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-城市污水是parabens及其代谢物在城市河流中的重要污染点源。
-城市污水→城市排水系统（排水管道和污水处理厂）→受纳水体</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-城市地表径流是大气颗粒物、地面积尘、土壤和垃圾渗滤液等环境介质中的污染物进入城市水环境的重要途径，是重要的面源污染。
-地面积尘、土壤→地表径流→受纳水体
-</t>
         </r>
       </text>
     </comment>
@@ -733,7 +702,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="304">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4551,10 +4520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>论文编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BS004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4592,263 +4557,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BS004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摘要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景
-研究空白
-研究主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>城市化河流中对轻基苯甲酸酯及其代谢物的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>污染特征</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>及其</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>受城市建设和管理措施影响的机制</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要研究内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要研究内容1的主要结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在不同环境介质中的浓度水平结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…平均浓度…对比发现…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>河水中目标污染物的来源
-主要结论/发现：排水体制改造前，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合流制溢流排水</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是导致茅洲河河水中对羟基苯甲酸酯及其代谢物异常增高的主要原因。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过分流制排水体制改造，目标污染物进入河段的总量可减少80%以上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要研究内容2的主要结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要研究内容3的主要结果</t>
-  </si>
-  <si>
-    <t>段七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究意义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答辩PPT的第9页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复杂的城市排水系统如何影响城市水环境中Parabens及其代谢物的污染？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答辩PPT的第10页</t>
-  </si>
-  <si>
-    <t>在降雨径流的驱动下，
-面源污染过程如何影响城市水环境中Parabens及其代谢物的污染？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>通过固相萃取和液液萃取结合
-液相色谱质谱联用仪分析测定了不同介质中对羟基苯甲酸酯及其代谢物的浓度水平。
-1.分析了典型城市雨源型河流中对轻基苯甲酸酯及其代谢物的污染特征及来源构成；
-（解析城市化流域水环境中parabens及其代谢物污染的时空特征及其影响因素）
-2.研究了城市河流中目标污染物的点源污染过程及其影响机制；
-（揭示城市复杂排水系统对雨源型河流中parabens及其代谢物</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点源污染过程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的影响机制）
-3.量化了城市</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>面源污染过程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对城市河流中目标污染物的贡献
-（阐明城市路面地表径流对于城市水环境中parabens及其代谢物污染的贡献）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三章：城市雨源型河流的污染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四章：城市化流域的点源污染过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五章：城市化流域的面源污
-染过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初期冲刷效应、
-面源污染影响的定量分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Occurrence, distribution, bioaccumulation, and ecological risk of bisphenol analogues, parabens and their metabolites in the Pearl River Estuary</t>
+    <t>DJZ001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4856,7 +4565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5004,14 +4713,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="仿宋"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -5164,7 +4865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5304,28 +5005,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5373,6 +5065,93 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3038476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1895780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11630026" y="2257425"/>
+          <a:ext cx="2171700" cy="1886255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3751336</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2505075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="4219575"/>
+          <a:ext cx="3541786" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5574,137 +5353,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>866776</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3038476</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1895780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11630026" y="2257425"/>
-          <a:ext cx="2171700" cy="1886255"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3751336</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2505075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10972800" y="4219575"/>
-          <a:ext cx="3541786" cy="2438400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>771525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3287949</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>3200400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6267450" y="2105025"/>
-          <a:ext cx="3249849" cy="2428875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6044,7 +5693,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6444,9 +6093,993 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:T10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1"/>
+    <col min="7" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="46.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="46.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="64.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="47.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="63.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="76.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="81" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="49">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="9" style="1"/>
+    <col min="8" max="9" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="39.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="61.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+    </row>
+    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:Q1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1"/>
+    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="32"/>
+    <col min="2" max="2" width="9.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9" style="32"/>
+    <col min="7" max="7" width="49.625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="26.125" style="32" customWidth="1"/>
+    <col min="9" max="9" width="29" style="32" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -6484,17 +7117,17 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="54" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
       <c r="S1" s="16"/>
       <c r="T1" s="16"/>
       <c r="U1" s="16"/>
@@ -6800,1694 +7433,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="100.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="146.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="16">
-        <v>1998</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="61.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="16">
-        <v>2000</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="16">
-        <v>2001</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="100.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="146.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.25" style="32" customWidth="1"/>
-    <col min="7" max="8" width="9" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="32" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.375" style="32" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="32"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="2">
-        <v>41771529</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2017</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2020</v>
-      </c>
-      <c r="I2" s="2">
-        <v>63</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="2">
-        <v>41471417</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2014</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2018</v>
-      </c>
-      <c r="I3" s="2">
-        <v>90</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1"/>
-    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1"/>
-    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1"/>
-    <col min="7" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="46.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="46.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="64.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="63.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="76.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="81" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2016</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="2">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="32"/>
-    <col min="2" max="2" width="9.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="9" style="32"/>
-    <col min="7" max="7" width="49.625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="26.125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="29" style="32" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="32"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="5" width="27.375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="43.5" style="49" customWidth="1"/>
-    <col min="7" max="7" width="31.375" style="49" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.625" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56" t="s">
-        <v>327</v>
-      </c>
-      <c r="I2" s="56"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50" t="s">
-        <v>310</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="297" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>317</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>319</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>276</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>339</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8532,28 +7484,28 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="58" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="57" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
       <c r="AB1" s="16"/>
       <c r="AC1" s="16"/>
     </row>
@@ -9166,121 +8118,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="26.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="39.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-    </row>
-    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:Q1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9414,12 +8257,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9462,27 +8305,27 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="58" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="57" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
       <c r="AA1" s="16"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -9805,4 +8648,454 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="100.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="146.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1998</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="61.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2001</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.25" style="32" customWidth="1"/>
+    <col min="7" max="8" width="9" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="32" customWidth="1"/>
+    <col min="10" max="10" width="52.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.375" style="32" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="2">
+        <v>41771529</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2020</v>
+      </c>
+      <c r="I2" s="2">
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="2">
+        <v>41471417</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2014</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I3" s="2">
+        <v>90</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P1.xlsx
+++ b/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="8"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="博士论文阅读" sheetId="3" r:id="rId1"/>
@@ -702,7 +702,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="319">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4558,6 +4558,260 @@
   </si>
   <si>
     <t>DJZ001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hao Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hongwen Sun
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">孙红文
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Zhen Zhao
+( Kurunthachalam Kannan)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Multimedia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Distribution and Transfer of Per- and Polyfluoroalkyl Substances (PFASs) Surrounding Two Fluorochemical Manufacturing Facilities in Fuxin, China</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two fluorochemical manufacturing parks (FMPs) 
+in Fuxin, China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">25 PFASs </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Abstract:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> In this study, 25 neutral and ionizable PFASs were analyzed 
+in 94 multimedia samples including </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>air</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, rain, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>outdoor settled dust</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>soil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, plant leaves, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>river water</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, surface sediment, and shallow groundwater from two fluorochemical manufacturing parks (FMPs) in Fuxin, China, to elucidate the multimedia distribution and transfer pattern of PFASs from a point source.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Introduction: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The result of this study provide a fundamental basis for the understanding of media distribution and transport of PFASs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> from a point source to the surrounding environment.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD004</t>
+  </si>
+  <si>
+    <t>RD005</t>
+  </si>
+  <si>
+    <t>RD006</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环境科学学报</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑小康</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李春晖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保定城区地表灰尘污染物分布特征及健康风险评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spatial and phase distributions, correlations among PFAS analogues</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4565,7 +4819,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4716,8 +4970,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4775,6 +5035,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4865,7 +5131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5013,6 +5279,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5551,54 +5829,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2065" name="AutoShape 17" descr="https://pubs.acs.org/cms/10.1021/es2003233/asset/images/large/es-2011-003233_0005.jpeg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9201150" y="9563100"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>809624</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -5682,6 +5912,82 @@
         <a:xfrm>
           <a:off x="10029825" y="1409700"/>
           <a:ext cx="2524125" cy="1862907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>459443</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3785719</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1893794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10141325" y="8258736"/>
+          <a:ext cx="3326276" cy="1860176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>862854</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3350560</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10544736" y="12046324"/>
+          <a:ext cx="2487706" cy="1895951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6568,27 +6874,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
     </row>
     <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
@@ -7117,17 +7423,17 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
       <c r="S1" s="16"/>
       <c r="T1" s="16"/>
       <c r="U1" s="16"/>
@@ -7438,8 +7744,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="K6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7448,7 +7754,8 @@
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="57" style="10" customWidth="1"/>
     <col min="9" max="9" width="51.25" style="10" customWidth="1"/>
@@ -7476,38 +7783,38 @@
   <sheetData>
     <row r="1" spans="1:29" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="55" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="54" t="s">
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -7602,52 +7909,52 @@
       <c r="A3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="52">
         <v>1998</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="52" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
       <c r="U3" s="18"/>
-      <c r="V3" s="16"/>
+      <c r="V3" s="52"/>
       <c r="W3" s="18"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
       <c r="AB3" s="18"/>
-      <c r="AC3" s="16"/>
+      <c r="AC3" s="52"/>
     </row>
     <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="52" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="20">
@@ -7704,66 +8011,66 @@
       <c r="X4" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
       <c r="AA4" s="22" t="s">
         <v>98</v>
       </c>
       <c r="AB4" s="21"/>
-      <c r="AC4" s="16"/>
+      <c r="AC4" s="52"/>
     </row>
     <row r="5" spans="1:29" s="23" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="52">
         <v>2001</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="52" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="52" t="s">
         <v>144</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
       <c r="S5" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="U5" s="16"/>
+      <c r="U5" s="52"/>
       <c r="V5" s="15" t="s">
         <v>41</v>
       </c>
@@ -7773,87 +8080,87 @@
       <c r="X5" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Y5" s="16"/>
+      <c r="Y5" s="52"/>
       <c r="Z5" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="AB5" s="16"/>
+      <c r="AB5" s="52"/>
       <c r="AC5" s="20"/>
     </row>
     <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="52">
         <v>2012</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="52" t="s">
         <v>69</v>
       </c>
       <c r="L6" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16" t="s">
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="52" t="s">
         <v>107</v>
       </c>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
     </row>
     <row r="7" spans="1:29" ht="209.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="52">
         <v>2020</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="52" t="s">
         <v>147</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -7869,7 +8176,7 @@
       <c r="J7" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="52" t="s">
         <v>154</v>
       </c>
       <c r="L7" s="18" t="s">
@@ -7881,7 +8188,7 @@
       <c r="N7" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="52" t="s">
         <v>182</v>
       </c>
       <c r="P7" s="31" t="s">
@@ -7896,7 +8203,7 @@
       <c r="S7" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" s="52" t="s">
         <v>109</v>
       </c>
       <c r="U7" s="15" t="s">
@@ -7908,7 +8215,7 @@
       <c r="W7" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="X7" s="16" t="s">
+      <c r="X7" s="52" t="s">
         <v>197</v>
       </c>
       <c r="Y7" s="17" t="s">
@@ -7917,7 +8224,7 @@
       <c r="Z7" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="AA7" s="16" t="s">
+      <c r="AA7" s="52" t="s">
         <v>194</v>
       </c>
       <c r="AB7" s="17" t="s">
@@ -7931,13 +8238,13 @@
       <c r="A8" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="52">
         <v>2011</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="52" t="s">
         <v>227</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -7949,153 +8256,191 @@
       <c r="G8" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+    </row>
+    <row r="9" spans="1:29" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+    </row>
+    <row r="10" spans="1:29" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+    </row>
+    <row r="11" spans="1:29" s="55" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54">
+        <v>2009</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+    </row>
+    <row r="12" spans="1:29" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="Q13" s="16"/>
+      <c r="Q13" s="52"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H16" s="33"/>
@@ -8305,27 +8650,27 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="55" t="s">
+      <c r="J1" s="62"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="54" t="s">
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
       <c r="AA1" s="16"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -8834,7 +9179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>

--- a/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P1.xlsx
+++ b/多介质模型文献阅读/Excel文献拆解/多介质模型文献整理-P1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="博士论文阅读" sheetId="3" r:id="rId1"/>
@@ -7385,8 +7385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -7744,8 +7744,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="H2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
